--- a/Sensore_temp/altri_dati_analizzati.xlsx
+++ b/Sensore_temp/altri_dati_analizzati.xlsx
@@ -1,39 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esame\Documents\Arduino\Sketches\PROGETTI\Sensore_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DAVIDE\_ITS_Arduino\Progetti\Sensore_temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B27BD6-5BA0-443A-965D-28E74673C427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5A5FD-C640-43D6-8379-36E035FED497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{055E0F41-6954-4534-A7E2-C355948DE80A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{055E0F41-6954-4534-A7E2-C355948DE80A}"/>
   </bookViews>
   <sheets>
     <sheet name="altri_dati" sheetId="2" r:id="rId1"/>
+    <sheet name="all_data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">altri_dati!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">altri_dati!$B$2:$B$151</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">altri_dati!$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">altri_dati!$D$2:$D$151</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">altri_dati!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">altri_dati!$B$2:$B$151</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">altri_dati!$C$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">altri_dati!$C$2:$C$151</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">altri_dati!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">altri_dati!$D$2:$D$151</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">altri_dati!$C$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">altri_dati!$C$2:$C$151</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">altri_dati!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">altri_dati!$D$2:$D$151</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">altri_dati!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">altri_dati!$B$2:$B$151</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">altri_dati!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">altri_dati!$C$2:$C$151</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">altri_dati!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">altri_dati!$C$2:$C$151</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">altri_dati!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">altri_dati!$D$2:$D$151</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">altri_dati!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">altri_dati!$B$2:$B$151</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">all_data!$A$2:$A$451</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">altri_dati!$A$1:$D$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -65,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>2000</t>
   </si>
@@ -527,6 +517,9 @@
   </si>
   <si>
     <t>THERMO</t>
+  </si>
+  <si>
+    <t>All Data</t>
   </si>
 </sst>
 </file>
@@ -542,15 +535,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -558,13 +557,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3731,110 +3772,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Istogramma tutti sensori</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Istogramma tutti sensori</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{0B861AD3-D929-4BDC-B4D1-7A9421568895}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>NTC</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r">
-              <cx:binCount val="5"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{59F9E9D6-8509-418C-85FE-BE68A746DE3F}" formatIdx="1">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
-              <cx:v>DHT11</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{6FE12736-E48A-4262-A2BE-2DA4A1ED9437}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
-              <cx:v>THERMO</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="115"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3872,7 +3810,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{863F1002-56D1-4234-AA9B-B371A6DD1919}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>NTC</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3896,12 +3834,12 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3939,7 +3877,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{57FD9EE6-21E1-44FD-A875-EE2F367380D0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>DHT11</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3963,12 +3901,12 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4006,13 +3944,76 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{ABC7EA38-1413-4208-AF33-FFDE0E749678}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>THERMO</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Istogramma tutti i sensori</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Istogramma tutti i sensori</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{63FB6597-9C0F-4394-B896-031710164C70}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.5"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -6788,10 +6789,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6820,25 +6821,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Grafico 3">
+            <xdr:cNvPr id="5" name="Grafico 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0F8FED-0BF8-D7BA-D1D7-F5D613ED49CC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43769E3-0C77-AD01-6BF0-CC1EC4F43790}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6865,8 +6866,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3596640" y="2526030"/>
-              <a:ext cx="3009900" cy="4865370"/>
+              <a:off x="8915400" y="190500"/>
+              <a:ext cx="1828800" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6898,25 +6899,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Grafico 4">
+            <xdr:cNvPr id="6" name="Grafico 5">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43769E3-0C77-AD01-6BF0-CC1EC4F43790}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D53E8C4-5DB7-B879-AFFA-D2536200AC46}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6943,8 +6944,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6797040" y="179070"/>
-              <a:ext cx="1607820" cy="2404110"/>
+              <a:off x="8915400" y="3238500"/>
+              <a:ext cx="1828800" cy="2847975"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6976,25 +6977,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Grafico 5">
+            <xdr:cNvPr id="7" name="Grafico 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D53E8C4-5DB7-B879-AFFA-D2536200AC46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA3EE7-0DA6-207F-20F7-6B1E254B8EE1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7021,8 +7022,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6797040" y="2708910"/>
-              <a:ext cx="1615440" cy="2426970"/>
+              <a:off x="8915400" y="6286500"/>
+              <a:ext cx="1828800" cy="2857500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7054,25 +7055,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Grafico 6">
+            <xdr:cNvPr id="2" name="Grafico 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEA3EE7-0DA6-207F-20F7-6B1E254B8EE1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40ABE2-64B6-4893-A5C5-C7335D689D1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7099,8 +7100,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6774180" y="5215890"/>
-              <a:ext cx="1668780" cy="2419350"/>
+              <a:off x="3467100" y="3238500"/>
+              <a:ext cx="4876800" cy="5905500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7478,16 +7479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9681FA-E4B0-4087-A93E-1D831A86B0E0}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -7501,7 +7503,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7515,7 +7517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7543,7 +7545,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7585,7 +7587,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7641,7 +7643,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7657,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7697,7 +7699,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7711,7 +7713,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7725,7 +7727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7753,7 +7755,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7767,7 +7769,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -7823,7 +7825,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -7837,7 +7839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -7879,7 +7881,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -7921,7 +7923,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -7991,7 +7993,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -8033,7 +8035,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -8075,7 +8077,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -8131,7 +8133,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -8187,7 +8189,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -8201,7 +8203,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -8215,7 +8217,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -8243,7 +8245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -8257,7 +8259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -8299,7 +8301,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -8313,7 +8315,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -8327,7 +8329,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -8355,7 +8357,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -8383,7 +8385,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -8411,7 +8413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -8425,7 +8427,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -8439,7 +8441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -8495,7 +8497,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -8523,7 +8525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -8551,7 +8553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -8565,7 +8567,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -8579,7 +8581,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -8635,7 +8637,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -8649,7 +8651,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -8705,7 +8707,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -8733,7 +8735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -8747,7 +8749,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -8761,7 +8763,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -8803,7 +8805,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -8859,7 +8861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -8873,7 +8875,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -8943,7 +8945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -8971,7 +8973,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -8985,7 +8987,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -8999,7 +9001,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -9055,7 +9057,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -9069,7 +9071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -9111,7 +9113,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -9125,7 +9127,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -9139,7 +9141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -9167,7 +9169,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -9181,7 +9183,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -9209,7 +9211,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -9251,7 +9253,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -9279,7 +9281,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -9293,7 +9295,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -9335,7 +9337,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -9349,7 +9351,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -9363,7 +9365,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -9405,7 +9407,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -9419,7 +9421,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -9475,7 +9477,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -9489,7 +9491,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -9503,7 +9505,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -9517,7 +9519,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -9545,7 +9547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -9559,7 +9561,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -9573,7 +9575,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -9587,7 +9589,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -9607,6 +9609,2279 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D317BB-4660-4EF4-A074-1DD4AF7209BF}">
+  <dimension ref="A1:A451"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A451"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="5">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="7">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="7">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="7">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="7">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="7">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="7">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="7">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="7">
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="7">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="7">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="7">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="7">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="7">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="7">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="7">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="6">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="7">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
